--- a/data/Lakes/LakeWilliam_e66a7ded34.xlsx
+++ b/data/Lakes/LakeWilliam_e66a7ded34.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -937,7 +937,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -964,7 +964,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -995,7 +995,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5084,7 +5084,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8450,7 +8450,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">

--- a/data/Lakes/LakeWilliam_e66a7ded34.xlsx
+++ b/data/Lakes/LakeWilliam_e66a7ded34.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="312">
   <si>
     <t>site name</t>
   </si>
@@ -70,7 +70,7 @@
     <t>0.0500</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>0.0220</t>
@@ -88,7 +88,7 @@
     <t>14.000</t>
   </si>
   <si>
-    <t>&lt;4</t>
+    <t>&lt;4.0</t>
   </si>
   <si>
     <t>1.010</t>
@@ -103,7 +103,7 @@
     <t>3.600</t>
   </si>
   <si>
-    <t>54</t>
+    <t>54.0</t>
   </si>
   <si>
     <t>1.0000</t>
@@ -118,7 +118,7 @@
     <t>3.800</t>
   </si>
   <si>
-    <t>4</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>0.6070</t>
@@ -133,7 +133,7 @@
     <t>24.000</t>
   </si>
   <si>
-    <t>12</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>0.9700</t>
@@ -247,7 +247,7 @@
     <t>5.000</t>
   </si>
   <si>
-    <t>44</t>
+    <t>44.0</t>
   </si>
   <si>
     <t>7.540</t>
@@ -496,7 +496,7 @@
     <t>1.900</t>
   </si>
   <si>
-    <t>110</t>
+    <t>110.0</t>
   </si>
   <si>
     <t>7.280</t>
@@ -532,6 +532,9 @@
     <t>&lt;1.900</t>
   </si>
   <si>
+    <t>12.4</t>
+  </si>
+  <si>
     <t>7.590</t>
   </si>
   <si>
@@ -565,7 +568,7 @@
     <t>33.000</t>
   </si>
   <si>
-    <t>29</t>
+    <t>29.2</t>
   </si>
   <si>
     <t>8.080</t>
@@ -676,7 +679,7 @@
     <t>0.0820</t>
   </si>
   <si>
-    <t>124</t>
+    <t>123.6</t>
   </si>
   <si>
     <t>7.610</t>
@@ -700,7 +703,7 @@
     <t>5.500</t>
   </si>
   <si>
-    <t>1302</t>
+    <t>1302.0</t>
   </si>
   <si>
     <t>7.860</t>
@@ -757,6 +760,144 @@
     <t>0.5540</t>
   </si>
   <si>
+    <t>22.51070</t>
+  </si>
+  <si>
+    <t>0.0090</t>
+  </si>
+  <si>
+    <t>74.000</t>
+  </si>
+  <si>
+    <t>8.510</t>
+  </si>
+  <si>
+    <t>2.090</t>
+  </si>
+  <si>
+    <t>0.3870</t>
+  </si>
+  <si>
+    <t>3.18940</t>
+  </si>
+  <si>
+    <t>0.1390</t>
+  </si>
+  <si>
+    <t>18.000</t>
+  </si>
+  <si>
+    <t>8.350</t>
+  </si>
+  <si>
+    <t>1.470</t>
+  </si>
+  <si>
+    <t>0.2930</t>
+  </si>
+  <si>
+    <t>10.24360</t>
+  </si>
+  <si>
+    <t>0.1190</t>
+  </si>
+  <si>
+    <t>22.000</t>
+  </si>
+  <si>
+    <t>8.720</t>
+  </si>
+  <si>
+    <t>0.0180</t>
+  </si>
+  <si>
+    <t>0.2840</t>
+  </si>
+  <si>
+    <t>1.40010</t>
+  </si>
+  <si>
+    <t>0.2820</t>
+  </si>
+  <si>
+    <t>7.650</t>
+  </si>
+  <si>
+    <t>1.810</t>
+  </si>
+  <si>
+    <t>0.2710</t>
+  </si>
+  <si>
+    <t>0.16700</t>
+  </si>
+  <si>
+    <t>7.830</t>
+  </si>
+  <si>
+    <t>0.2480</t>
+  </si>
+  <si>
+    <t>0.1010</t>
+  </si>
+  <si>
+    <t>0.83250</t>
+  </si>
+  <si>
+    <t>0.0800</t>
+  </si>
+  <si>
+    <t>7.400</t>
+  </si>
+  <si>
+    <t>48.8</t>
+  </si>
+  <si>
+    <t>7.670</t>
+  </si>
+  <si>
+    <t>0.2410</t>
+  </si>
+  <si>
+    <t>1.560</t>
+  </si>
+  <si>
+    <t>0.1640</t>
+  </si>
+  <si>
+    <t>25.76690</t>
+  </si>
+  <si>
+    <t>0.2120</t>
+  </si>
+  <si>
+    <t>22.100</t>
+  </si>
+  <si>
+    <t>9.210</t>
+  </si>
+  <si>
+    <t>2.570</t>
+  </si>
+  <si>
+    <t>0.1870</t>
+  </si>
+  <si>
+    <t>0.81240</t>
+  </si>
+  <si>
+    <t>15.900</t>
+  </si>
+  <si>
+    <t>8.520</t>
+  </si>
+  <si>
+    <t>0.0110</t>
+  </si>
+  <si>
+    <t>0.2360</t>
+  </si>
+  <si>
     <t>Science - Lakes Sampling</t>
   </si>
   <si>
@@ -791,6 +932,9 @@
   </si>
   <si>
     <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+  </si>
+  <si>
+    <t>APHA Online Edition Method 4500 NH3 H.</t>
   </si>
   <si>
     <t>g/m3</t>
@@ -1167,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I311"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1360,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -1236,7 +1380,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -1256,7 +1400,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -1310,7 +1454,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -1330,7 +1474,7 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -1350,7 +1494,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -1404,7 +1548,7 @@
         <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H12">
         <v>600</v>
@@ -1424,7 +1568,7 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H13">
         <v>600</v>
@@ -1444,7 +1588,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1464,7 +1608,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1518,7 +1662,7 @@
         <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H18">
         <v>600</v>
@@ -1538,7 +1682,7 @@
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1558,7 +1702,7 @@
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1578,7 +1722,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1632,7 +1776,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1652,7 +1796,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1706,7 +1850,7 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1726,7 +1870,7 @@
         <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1780,13 +1924,13 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1806,13 +1950,13 @@
         <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1832,13 +1976,13 @@
         <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F34" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1858,10 +2002,10 @@
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1881,10 +2025,10 @@
         <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -1904,13 +2048,13 @@
         <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F37" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1930,13 +2074,13 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F38" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G38" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1956,13 +2100,13 @@
         <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F39" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G39" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -1982,10 +2126,10 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F40" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -2005,10 +2149,10 @@
         <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F41" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -2028,13 +2172,13 @@
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F42" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -2054,13 +2198,13 @@
         <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F43" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G43" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -2080,13 +2224,13 @@
         <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F44" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G44" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -2106,10 +2250,10 @@
         <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F45" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -2129,10 +2273,10 @@
         <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F46" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2152,13 +2296,13 @@
         <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F47" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="G47" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2178,13 +2322,13 @@
         <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F48" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G48" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -2204,13 +2348,13 @@
         <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F49" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G49" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2230,13 +2374,13 @@
         <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F50" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G50" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2256,10 +2400,10 @@
         <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F51" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2279,10 +2423,10 @@
         <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F52" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2302,13 +2446,13 @@
         <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F53" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="G53" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2328,13 +2472,13 @@
         <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G54" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -2354,13 +2498,13 @@
         <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F55" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G55" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2380,13 +2524,13 @@
         <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F56" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G56" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2406,10 +2550,10 @@
         <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F57" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2429,10 +2573,10 @@
         <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F58" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2452,13 +2596,13 @@
         <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F59" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="G59" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2478,13 +2622,13 @@
         <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F60" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G60" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2504,13 +2648,13 @@
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G61" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2530,13 +2674,13 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G62" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2556,10 +2700,10 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F63" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2579,10 +2723,10 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F64" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2602,7 +2746,7 @@
         <v>68</v>
       </c>
       <c r="G65" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2622,13 +2766,13 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F66" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2651,13 +2795,13 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F67" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G67" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2680,13 +2824,13 @@
         <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F68" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G68" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2709,7 +2853,7 @@
         <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -2735,13 +2879,13 @@
         <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F70" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G70" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2764,10 +2908,10 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F71" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2790,10 +2934,10 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F72" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2816,7 +2960,7 @@
         <v>74</v>
       </c>
       <c r="G73" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2836,13 +2980,13 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F74" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="G74" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2865,13 +3009,13 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F75" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G75" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2894,13 +3038,13 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F76" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G76" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2923,7 +3067,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -2949,13 +3093,13 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F78" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G78" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -2978,10 +3122,10 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F79" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -3004,10 +3148,10 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F80" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H80">
         <v>500</v>
@@ -3030,7 +3174,7 @@
         <v>82</v>
       </c>
       <c r="G81" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -3050,13 +3194,13 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F82" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="G82" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -3076,13 +3220,13 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F83" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G83" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -3102,13 +3246,13 @@
         <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F84" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G84" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -3128,13 +3272,13 @@
         <v>54</v>
       </c>
       <c r="E85" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F85" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G85" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -3154,10 +3298,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F86" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3177,10 +3321,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F87" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3200,7 +3344,7 @@
         <v>87</v>
       </c>
       <c r="G88" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3220,13 +3364,13 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F89" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="G89" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3249,13 +3393,13 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F90" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G90" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3278,13 +3422,13 @@
         <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F91" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G91" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3307,7 +3451,7 @@
         <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G92" t="s">
         <v>8</v>
@@ -3333,13 +3477,13 @@
         <v>91</v>
       </c>
       <c r="E93" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F93" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G93" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3362,10 +3506,10 @@
         <v>92</v>
       </c>
       <c r="E94" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F94" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3388,10 +3532,10 @@
         <v>93</v>
       </c>
       <c r="E95" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F95" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3414,7 +3558,7 @@
         <v>94</v>
       </c>
       <c r="G96" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3434,13 +3578,13 @@
         <v>95</v>
       </c>
       <c r="E97" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F97" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="G97" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3463,13 +3607,13 @@
         <v>96</v>
       </c>
       <c r="E98" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F98" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G98" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3492,13 +3636,13 @@
         <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F99" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G99" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3521,7 +3665,7 @@
         <v>97</v>
       </c>
       <c r="E100" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G100" t="s">
         <v>8</v>
@@ -3547,13 +3691,13 @@
         <v>98</v>
       </c>
       <c r="E101" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F101" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G101" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3576,10 +3720,10 @@
         <v>99</v>
       </c>
       <c r="E102" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F102" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3602,10 +3746,10 @@
         <v>100</v>
       </c>
       <c r="E103" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F103" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3628,7 +3772,7 @@
         <v>101</v>
       </c>
       <c r="G104" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3648,13 +3792,13 @@
         <v>102</v>
       </c>
       <c r="E105" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F105" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="G105" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3677,13 +3821,13 @@
         <v>103</v>
       </c>
       <c r="E106" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F106" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G106" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3706,13 +3850,13 @@
         <v>34</v>
       </c>
       <c r="E107" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F107" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G107" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3735,7 +3879,7 @@
         <v>104</v>
       </c>
       <c r="E108" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G108" t="s">
         <v>8</v>
@@ -3761,13 +3905,13 @@
         <v>105</v>
       </c>
       <c r="E109" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F109" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G109" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3790,10 +3934,10 @@
         <v>106</v>
       </c>
       <c r="E110" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F110" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3816,10 +3960,10 @@
         <v>67</v>
       </c>
       <c r="E111" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F111" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3842,7 +3986,7 @@
         <v>107</v>
       </c>
       <c r="G112" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3862,13 +4006,13 @@
         <v>108</v>
       </c>
       <c r="E113" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F113" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="G113" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3891,13 +4035,13 @@
         <v>109</v>
       </c>
       <c r="E114" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F114" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G114" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3920,13 +4064,13 @@
         <v>34</v>
       </c>
       <c r="E115" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F115" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G115" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3949,7 +4093,7 @@
         <v>110</v>
       </c>
       <c r="E116" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G116" t="s">
         <v>8</v>
@@ -3975,13 +4119,13 @@
         <v>111</v>
       </c>
       <c r="E117" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F117" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G117" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -4004,10 +4148,10 @@
         <v>112</v>
       </c>
       <c r="E118" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F118" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -4030,10 +4174,10 @@
         <v>44</v>
       </c>
       <c r="E119" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F119" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -4056,7 +4200,7 @@
         <v>113</v>
       </c>
       <c r="G120" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -4076,13 +4220,13 @@
         <v>114</v>
       </c>
       <c r="E121" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F121" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="G121" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -4105,13 +4249,13 @@
         <v>115</v>
       </c>
       <c r="E122" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F122" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G122" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -4134,13 +4278,13 @@
         <v>18</v>
       </c>
       <c r="E123" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F123" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G123" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -4163,7 +4307,7 @@
         <v>116</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G124" t="s">
         <v>8</v>
@@ -4189,13 +4333,13 @@
         <v>117</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G125" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4218,10 +4362,10 @@
         <v>118</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F126" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4244,10 +4388,10 @@
         <v>119</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F127" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4270,7 +4414,7 @@
         <v>120</v>
       </c>
       <c r="G128" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4290,13 +4434,13 @@
         <v>121</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="G129" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4319,13 +4463,13 @@
         <v>122</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F130" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G130" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4348,13 +4492,13 @@
         <v>24</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F131" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G131" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4377,7 +4521,7 @@
         <v>116</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G132" t="s">
         <v>8</v>
@@ -4403,13 +4547,13 @@
         <v>123</v>
       </c>
       <c r="E133" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G133" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4432,10 +4576,10 @@
         <v>124</v>
       </c>
       <c r="E134" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F134" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4458,10 +4602,10 @@
         <v>125</v>
       </c>
       <c r="E135" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4484,7 +4628,7 @@
         <v>126</v>
       </c>
       <c r="G136" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4504,13 +4648,13 @@
         <v>83</v>
       </c>
       <c r="E137" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F137" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="G137" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4533,13 +4677,13 @@
         <v>127</v>
       </c>
       <c r="E138" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F138" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G138" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4562,13 +4706,13 @@
         <v>24</v>
       </c>
       <c r="E139" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F139" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G139" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4591,7 +4735,7 @@
         <v>128</v>
       </c>
       <c r="E140" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G140" t="s">
         <v>8</v>
@@ -4617,13 +4761,13 @@
         <v>51</v>
       </c>
       <c r="E141" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F141" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G141" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4646,10 +4790,10 @@
         <v>129</v>
       </c>
       <c r="E142" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F142" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4672,10 +4816,10 @@
         <v>60</v>
       </c>
       <c r="E143" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F143" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4698,7 +4842,7 @@
         <v>130</v>
       </c>
       <c r="G144" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4718,13 +4862,13 @@
         <v>131</v>
       </c>
       <c r="E145" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F145" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G145" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4747,13 +4891,13 @@
         <v>132</v>
       </c>
       <c r="E146" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F146" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G146" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4776,13 +4920,13 @@
         <v>18</v>
       </c>
       <c r="E147" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F147" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G147" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4805,7 +4949,7 @@
         <v>133</v>
       </c>
       <c r="E148" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G148" t="s">
         <v>8</v>
@@ -4831,13 +4975,13 @@
         <v>134</v>
       </c>
       <c r="E149" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F149" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G149" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4860,10 +5004,10 @@
         <v>135</v>
       </c>
       <c r="E150" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4886,10 +5030,10 @@
         <v>136</v>
       </c>
       <c r="E151" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4912,7 +5056,7 @@
         <v>137</v>
       </c>
       <c r="G152" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4932,13 +5076,13 @@
         <v>138</v>
       </c>
       <c r="E153" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G153" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -4961,13 +5105,13 @@
         <v>65</v>
       </c>
       <c r="E154" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G154" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -4990,13 +5134,13 @@
         <v>18</v>
       </c>
       <c r="E155" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G155" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -5019,7 +5163,7 @@
         <v>139</v>
       </c>
       <c r="E156" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G156" t="s">
         <v>8</v>
@@ -5045,13 +5189,13 @@
         <v>51</v>
       </c>
       <c r="E157" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G157" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -5074,10 +5218,10 @@
         <v>140</v>
       </c>
       <c r="E158" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F158" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -5100,10 +5244,10 @@
         <v>131</v>
       </c>
       <c r="E159" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F159" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -5126,7 +5270,7 @@
         <v>141</v>
       </c>
       <c r="G160" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -5146,13 +5290,13 @@
         <v>142</v>
       </c>
       <c r="E161" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F161" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G161" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -5175,13 +5319,13 @@
         <v>143</v>
       </c>
       <c r="E162" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F162" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G162" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -5204,13 +5348,13 @@
         <v>24</v>
       </c>
       <c r="E163" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F163" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5233,7 +5377,7 @@
         <v>144</v>
       </c>
       <c r="E164" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G164" t="s">
         <v>8</v>
@@ -5259,13 +5403,13 @@
         <v>51</v>
       </c>
       <c r="E165" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F165" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G165" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5288,10 +5432,10 @@
         <v>145</v>
       </c>
       <c r="E166" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F166" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5314,10 +5458,10 @@
         <v>146</v>
       </c>
       <c r="E167" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F167" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5340,7 +5484,7 @@
         <v>147</v>
       </c>
       <c r="G168" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5360,13 +5504,13 @@
         <v>148</v>
       </c>
       <c r="E169" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F169" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G169" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5389,13 +5533,13 @@
         <v>149</v>
       </c>
       <c r="E170" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F170" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G170" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5418,13 +5562,13 @@
         <v>34</v>
       </c>
       <c r="E171" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F171" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G171" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5447,7 +5591,7 @@
         <v>150</v>
       </c>
       <c r="E172" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G172" t="s">
         <v>8</v>
@@ -5473,13 +5617,13 @@
         <v>51</v>
       </c>
       <c r="E173" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F173" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G173" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5502,10 +5646,10 @@
         <v>135</v>
       </c>
       <c r="E174" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F174" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5528,10 +5672,10 @@
         <v>151</v>
       </c>
       <c r="E175" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F175" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5554,7 +5698,7 @@
         <v>152</v>
       </c>
       <c r="G176" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5574,13 +5718,13 @@
         <v>95</v>
       </c>
       <c r="E177" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F177" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G177" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5603,13 +5747,13 @@
         <v>153</v>
       </c>
       <c r="E178" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F178" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G178" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5632,13 +5776,13 @@
         <v>24</v>
       </c>
       <c r="E179" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F179" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G179" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5661,7 +5805,7 @@
         <v>154</v>
       </c>
       <c r="E180" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G180" t="s">
         <v>8</v>
@@ -5687,13 +5831,13 @@
         <v>123</v>
       </c>
       <c r="E181" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F181" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G181" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5716,10 +5860,10 @@
         <v>155</v>
       </c>
       <c r="E182" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F182" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5742,10 +5886,10 @@
         <v>156</v>
       </c>
       <c r="E183" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F183" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5768,7 +5912,7 @@
         <v>157</v>
       </c>
       <c r="G184" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5788,13 +5932,13 @@
         <v>158</v>
       </c>
       <c r="E185" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F185" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G185" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5817,13 +5961,13 @@
         <v>159</v>
       </c>
       <c r="E186" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F186" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G186" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5846,13 +5990,13 @@
         <v>160</v>
       </c>
       <c r="E187" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F187" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G187" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5875,7 +6019,7 @@
         <v>161</v>
       </c>
       <c r="E188" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G188" t="s">
         <v>8</v>
@@ -5901,13 +6045,13 @@
         <v>162</v>
       </c>
       <c r="E189" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F189" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G189" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5930,10 +6074,10 @@
         <v>163</v>
       </c>
       <c r="E190" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F190" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5956,10 +6100,10 @@
         <v>88</v>
       </c>
       <c r="E191" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F191" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -5982,7 +6126,7 @@
         <v>164</v>
       </c>
       <c r="G192" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -6002,13 +6146,13 @@
         <v>165</v>
       </c>
       <c r="E193" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F193" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G193" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -6031,13 +6175,13 @@
         <v>109</v>
       </c>
       <c r="E194" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F194" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G194" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -6060,13 +6204,13 @@
         <v>24</v>
       </c>
       <c r="E195" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F195" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G195" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H195">
         <v>600</v>
@@ -6089,7 +6233,7 @@
         <v>166</v>
       </c>
       <c r="E196" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G196" t="s">
         <v>8</v>
@@ -6115,13 +6259,13 @@
         <v>167</v>
       </c>
       <c r="E197" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F197" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G197" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H197">
         <v>600</v>
@@ -6144,10 +6288,10 @@
         <v>66</v>
       </c>
       <c r="E198" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F198" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H198">
         <v>600</v>
@@ -6170,10 +6314,10 @@
         <v>168</v>
       </c>
       <c r="E199" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F199" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -6196,7 +6340,7 @@
         <v>169</v>
       </c>
       <c r="G200" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -6216,13 +6360,13 @@
         <v>170</v>
       </c>
       <c r="E201" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F201" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G201" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H201">
         <v>600</v>
@@ -6245,13 +6389,13 @@
         <v>171</v>
       </c>
       <c r="E202" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F202" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G202" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H202">
         <v>600</v>
@@ -6271,16 +6415,16 @@
         <v>44811.42222222222</v>
       </c>
       <c r="D203" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="E203" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F203" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G203" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H203">
         <v>600</v>
@@ -6300,10 +6444,10 @@
         <v>44811.42222222222</v>
       </c>
       <c r="D204" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E204" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G204" t="s">
         <v>8</v>
@@ -6329,13 +6473,13 @@
         <v>35</v>
       </c>
       <c r="E205" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F205" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G205" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H205">
         <v>600</v>
@@ -6355,13 +6499,13 @@
         <v>44811.42222222222</v>
       </c>
       <c r="D206" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E206" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F206" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6381,13 +6525,13 @@
         <v>44811.42222222222</v>
       </c>
       <c r="D207" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E207" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F207" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6407,10 +6551,10 @@
         <v>44860.00048611111</v>
       </c>
       <c r="D208" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G208" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H208">
         <v>600</v>
@@ -6427,16 +6571,16 @@
         <v>44860.37638888889</v>
       </c>
       <c r="D209" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E209" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F209" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G209" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -6459,13 +6603,13 @@
         <v>171</v>
       </c>
       <c r="E210" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F210" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G210" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H210">
         <v>600</v>
@@ -6488,13 +6632,13 @@
         <v>24</v>
       </c>
       <c r="E211" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F211" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G211" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H211">
         <v>600</v>
@@ -6514,10 +6658,10 @@
         <v>44860.37638888889</v>
       </c>
       <c r="D212" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E212" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G212" t="s">
         <v>8</v>
@@ -6540,16 +6684,16 @@
         <v>44860.37638888889</v>
       </c>
       <c r="D213" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E213" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F213" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G213" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6572,10 +6716,10 @@
         <v>64</v>
       </c>
       <c r="E214" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F214" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6595,13 +6739,13 @@
         <v>44860.37638888889</v>
       </c>
       <c r="D215" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E215" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F215" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6621,10 +6765,10 @@
         <v>44886.00048611111</v>
       </c>
       <c r="D216" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G216" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6641,16 +6785,16 @@
         <v>44886.3875</v>
       </c>
       <c r="D217" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E217" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F217" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G217" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H217">
         <v>600</v>
@@ -6670,16 +6814,16 @@
         <v>44886.3875</v>
       </c>
       <c r="D218" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E218" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F218" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G218" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H218">
         <v>600</v>
@@ -6699,16 +6843,16 @@
         <v>44886.3875</v>
       </c>
       <c r="D219" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E219" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F219" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G219" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H219">
         <v>600</v>
@@ -6728,10 +6872,10 @@
         <v>44886.3875</v>
       </c>
       <c r="D220" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E220" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G220" t="s">
         <v>8</v>
@@ -6754,16 +6898,16 @@
         <v>44886.3875</v>
       </c>
       <c r="D221" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E221" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F221" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G221" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H221">
         <v>600</v>
@@ -6783,13 +6927,13 @@
         <v>44886.3875</v>
       </c>
       <c r="D222" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E222" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F222" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -6809,13 +6953,13 @@
         <v>44886.3875</v>
       </c>
       <c r="D223" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E223" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F223" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6835,10 +6979,10 @@
         <v>44914.00048611111</v>
       </c>
       <c r="D224" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G224" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -6858,13 +7002,13 @@
         <v>102</v>
       </c>
       <c r="E225" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F225" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G225" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H225">
         <v>600</v>
@@ -6884,16 +7028,16 @@
         <v>44914.37986111111</v>
       </c>
       <c r="D226" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E226" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F226" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G226" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H226">
         <v>600</v>
@@ -6916,13 +7060,13 @@
         <v>18</v>
       </c>
       <c r="E227" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F227" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G227" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H227">
         <v>600</v>
@@ -6942,10 +7086,10 @@
         <v>44914.37986111111</v>
       </c>
       <c r="D228" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E228" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G228" t="s">
         <v>8</v>
@@ -6968,16 +7112,16 @@
         <v>44914.37986111111</v>
       </c>
       <c r="D229" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E229" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F229" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G229" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H229">
         <v>600</v>
@@ -6997,13 +7141,13 @@
         <v>44914.37986111111</v>
       </c>
       <c r="D230" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E230" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F230" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H230">
         <v>600</v>
@@ -7023,13 +7167,13 @@
         <v>44914.37986111111</v>
       </c>
       <c r="D231" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E231" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F231" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -7049,10 +7193,10 @@
         <v>44952.00048611111</v>
       </c>
       <c r="D232" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G232" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H232">
         <v>600</v>
@@ -7072,13 +7216,13 @@
         <v>69</v>
       </c>
       <c r="E233" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F233" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G233" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H233">
         <v>600</v>
@@ -7098,16 +7242,16 @@
         <v>44952.36527777778</v>
       </c>
       <c r="D234" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E234" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F234" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G234" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H234">
         <v>600</v>
@@ -7130,13 +7274,13 @@
         <v>34</v>
       </c>
       <c r="E235" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F235" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G235" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H235">
         <v>600</v>
@@ -7156,10 +7300,10 @@
         <v>44952.36527777778</v>
       </c>
       <c r="D236" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E236" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G236" t="s">
         <v>8</v>
@@ -7182,16 +7326,16 @@
         <v>44952.36527777778</v>
       </c>
       <c r="D237" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E237" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F237" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G237" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H237">
         <v>600</v>
@@ -7211,13 +7355,13 @@
         <v>44952.36527777778</v>
       </c>
       <c r="D238" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E238" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F238" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H238">
         <v>600</v>
@@ -7237,13 +7381,13 @@
         <v>44952.36527777778</v>
       </c>
       <c r="D239" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E239" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F239" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7263,10 +7407,10 @@
         <v>44978.00048611111</v>
       </c>
       <c r="D240" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G240" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H240">
         <v>600</v>
@@ -7286,13 +7430,13 @@
         <v>93</v>
       </c>
       <c r="E241" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F241" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G241" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H241">
         <v>600</v>
@@ -7315,13 +7459,13 @@
         <v>33</v>
       </c>
       <c r="E242" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F242" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G242" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H242">
         <v>600</v>
@@ -7344,13 +7488,13 @@
         <v>24</v>
       </c>
       <c r="E243" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F243" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G243" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H243">
         <v>600</v>
@@ -7370,10 +7514,10 @@
         <v>44978.41458333333</v>
       </c>
       <c r="D244" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E244" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G244" t="s">
         <v>8</v>
@@ -7399,13 +7543,13 @@
         <v>95</v>
       </c>
       <c r="E245" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F245" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G245" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H245">
         <v>600</v>
@@ -7425,13 +7569,13 @@
         <v>44978.41458333333</v>
       </c>
       <c r="D246" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E246" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F246" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H246">
         <v>600</v>
@@ -7451,13 +7595,13 @@
         <v>44978.41458333333</v>
       </c>
       <c r="D247" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E247" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F247" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7477,10 +7621,10 @@
         <v>45008.00048611111</v>
       </c>
       <c r="D248" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G248" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H248">
         <v>600</v>
@@ -7497,16 +7641,16 @@
         <v>45008.43611111111</v>
       </c>
       <c r="D249" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E249" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F249" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G249" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H249">
         <v>500</v>
@@ -7529,13 +7673,13 @@
         <v>171</v>
       </c>
       <c r="E250" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F250" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G250" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H250">
         <v>600</v>
@@ -7558,13 +7702,13 @@
         <v>24</v>
       </c>
       <c r="E251" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F251" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G251" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H251">
         <v>600</v>
@@ -7584,10 +7728,10 @@
         <v>45008.43611111111</v>
       </c>
       <c r="D252" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E252" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G252" t="s">
         <v>8</v>
@@ -7610,16 +7754,16 @@
         <v>45008.43611111111</v>
       </c>
       <c r="D253" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E253" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F253" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G253" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H253">
         <v>600</v>
@@ -7639,13 +7783,13 @@
         <v>45008.43611111111</v>
       </c>
       <c r="D254" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E254" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F254" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H254">
         <v>600</v>
@@ -7665,13 +7809,13 @@
         <v>45008.43611111111</v>
       </c>
       <c r="D255" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E255" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F255" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7691,10 +7835,10 @@
         <v>45027.00048611111</v>
       </c>
       <c r="D256" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G256" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H256">
         <v>600</v>
@@ -7711,16 +7855,16 @@
         <v>45027.41458333333</v>
       </c>
       <c r="D257" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E257" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F257" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G257" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H257">
         <v>500</v>
@@ -7743,13 +7887,13 @@
         <v>109</v>
       </c>
       <c r="E258" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F258" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G258" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H258">
         <v>600</v>
@@ -7772,13 +7916,13 @@
         <v>18</v>
       </c>
       <c r="E259" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F259" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G259" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H259">
         <v>600</v>
@@ -7798,10 +7942,10 @@
         <v>45027.41458333333</v>
       </c>
       <c r="D260" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E260" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G260" t="s">
         <v>8</v>
@@ -7824,16 +7968,16 @@
         <v>45027.41458333333</v>
       </c>
       <c r="D261" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E261" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F261" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G261" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H261">
         <v>600</v>
@@ -7856,10 +8000,10 @@
         <v>106</v>
       </c>
       <c r="E262" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F262" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H262">
         <v>600</v>
@@ -7882,10 +8026,10 @@
         <v>100</v>
       </c>
       <c r="E263" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F263" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -7905,10 +8049,10 @@
         <v>45127.00048611111</v>
       </c>
       <c r="D264" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G264" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H264">
         <v>600</v>
@@ -7925,16 +8069,16 @@
         <v>45127.48472222222</v>
       </c>
       <c r="D265" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E265" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F265" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G265" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H265">
         <v>600</v>
@@ -7957,13 +8101,13 @@
         <v>171</v>
       </c>
       <c r="E266" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F266" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G266" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H266">
         <v>600</v>
@@ -7986,13 +8130,13 @@
         <v>34</v>
       </c>
       <c r="E267" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F267" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G267" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H267">
         <v>600</v>
@@ -8012,10 +8156,10 @@
         <v>45127.48472222222</v>
       </c>
       <c r="D268" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E268" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G268" t="s">
         <v>8</v>
@@ -8038,16 +8182,16 @@
         <v>45127.48472222222</v>
       </c>
       <c r="D269" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E269" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F269" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G269" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H269">
         <v>600</v>
@@ -8067,13 +8211,13 @@
         <v>45127.48472222222</v>
       </c>
       <c r="D270" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E270" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F270" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H270">
         <v>600</v>
@@ -8096,10 +8240,10 @@
         <v>21</v>
       </c>
       <c r="E271" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F271" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -8119,10 +8263,10 @@
         <v>45155.00048611111</v>
       </c>
       <c r="D272" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G272" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H272">
         <v>600</v>
@@ -8139,16 +8283,16 @@
         <v>45155.42708333334</v>
       </c>
       <c r="D273" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E273" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F273" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G273" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H273">
         <v>600</v>
@@ -8171,13 +8315,13 @@
         <v>159</v>
       </c>
       <c r="E274" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F274" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G274" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H274">
         <v>600</v>
@@ -8197,16 +8341,16 @@
         <v>45155.42708333334</v>
       </c>
       <c r="D275" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E275" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F275" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G275" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H275">
         <v>600</v>
@@ -8226,10 +8370,10 @@
         <v>45155.42708333334</v>
       </c>
       <c r="D276" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E276" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G276" t="s">
         <v>8</v>
@@ -8252,16 +8396,16 @@
         <v>45155.42708333334</v>
       </c>
       <c r="D277" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E277" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F277" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G277" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H277">
         <v>600</v>
@@ -8281,13 +8425,13 @@
         <v>45155.42708333334</v>
       </c>
       <c r="D278" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E278" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F278" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H278">
         <v>600</v>
@@ -8307,13 +8451,13 @@
         <v>45155.42708333334</v>
       </c>
       <c r="D279" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E279" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F279" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8333,10 +8477,10 @@
         <v>45197.00048611111</v>
       </c>
       <c r="D280" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G280" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H280">
         <v>600</v>
@@ -8353,16 +8497,16 @@
         <v>45197.32361111111</v>
       </c>
       <c r="D281" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E281" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F281" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G281" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H281">
         <v>600</v>
@@ -8382,16 +8526,16 @@
         <v>45197.32361111111</v>
       </c>
       <c r="D282" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E282" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F282" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G282" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H282">
         <v>600</v>
@@ -8411,16 +8555,16 @@
         <v>45197.32361111111</v>
       </c>
       <c r="D283" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E283" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F283" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G283" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H283">
         <v>600</v>
@@ -8440,10 +8584,10 @@
         <v>45197.32361111111</v>
       </c>
       <c r="D284" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E284" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G284" t="s">
         <v>8</v>
@@ -8466,16 +8610,16 @@
         <v>45197.32361111111</v>
       </c>
       <c r="D285" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E285" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F285" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G285" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H285">
         <v>600</v>
@@ -8498,10 +8642,10 @@
         <v>64</v>
       </c>
       <c r="E286" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F286" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H286">
         <v>600</v>
@@ -8521,13 +8665,13 @@
         <v>45197.32361111111</v>
       </c>
       <c r="D287" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E287" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F287" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8547,10 +8691,10 @@
         <v>45210.00048611111</v>
       </c>
       <c r="D288" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G288" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H288">
         <v>600</v>
@@ -8570,13 +8714,13 @@
         <v>69</v>
       </c>
       <c r="E289" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F289" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G289" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H289">
         <v>600</v>
@@ -8599,13 +8743,13 @@
         <v>143</v>
       </c>
       <c r="E290" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F290" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G290" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H290">
         <v>600</v>
@@ -8628,13 +8772,13 @@
         <v>18</v>
       </c>
       <c r="E291" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F291" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G291" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H291">
         <v>600</v>
@@ -8654,10 +8798,10 @@
         <v>45210.46041666667</v>
       </c>
       <c r="D292" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E292" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G292" t="s">
         <v>8</v>
@@ -8680,16 +8824,16 @@
         <v>45210.46041666667</v>
       </c>
       <c r="D293" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E293" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F293" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G293" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H293">
         <v>600</v>
@@ -8709,13 +8853,13 @@
         <v>45210.46041666667</v>
       </c>
       <c r="D294" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E294" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F294" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H294">
         <v>600</v>
@@ -8738,10 +8882,10 @@
         <v>156</v>
       </c>
       <c r="E295" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F295" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -8761,10 +8905,10 @@
         <v>45253.00048611111</v>
       </c>
       <c r="D296" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G296" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H296">
         <v>600</v>
@@ -8784,13 +8928,13 @@
         <v>83</v>
       </c>
       <c r="E297" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F297" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G297" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H297">
         <v>600</v>
@@ -8810,16 +8954,16 @@
         <v>45253.375</v>
       </c>
       <c r="D298" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E298" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F298" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G298" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H298">
         <v>600</v>
@@ -8842,13 +8986,13 @@
         <v>24</v>
       </c>
       <c r="E299" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F299" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G299" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H299">
         <v>600</v>
@@ -8868,10 +9012,10 @@
         <v>45253.375</v>
       </c>
       <c r="D300" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E300" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G300" t="s">
         <v>8</v>
@@ -8897,13 +9041,13 @@
         <v>54</v>
       </c>
       <c r="E301" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F301" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G301" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H301">
         <v>600</v>
@@ -8923,13 +9067,13 @@
         <v>45253.375</v>
       </c>
       <c r="D302" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E302" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F302" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H302">
         <v>500</v>
@@ -8949,13 +9093,13 @@
         <v>45253.375</v>
       </c>
       <c r="D303" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E303" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F303" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H303">
         <v>500</v>
@@ -8975,10 +9119,10 @@
         <v>45280.00048611111</v>
       </c>
       <c r="D304" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G304" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H304">
         <v>600</v>
@@ -8995,16 +9139,16 @@
         <v>45280.43055555555</v>
       </c>
       <c r="D305" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E305" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F305" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G305" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H305">
         <v>600</v>
@@ -9024,16 +9168,16 @@
         <v>45280.43055555555</v>
       </c>
       <c r="D306" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E306" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F306" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G306" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H306">
         <v>600</v>
@@ -9056,13 +9200,13 @@
         <v>24</v>
       </c>
       <c r="E307" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F307" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G307" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H307">
         <v>600</v>
@@ -9082,10 +9226,10 @@
         <v>45280.43055555555</v>
       </c>
       <c r="D308" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E308" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G308" t="s">
         <v>8</v>
@@ -9108,16 +9252,16 @@
         <v>45280.43055555555</v>
       </c>
       <c r="D309" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E309" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F309" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G309" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H309">
         <v>600</v>
@@ -9137,13 +9281,13 @@
         <v>45280.43055555555</v>
       </c>
       <c r="D310" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E310" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F310" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="H310">
         <v>500</v>
@@ -9163,19 +9307,1731 @@
         <v>45280.43055555555</v>
       </c>
       <c r="D311" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E311" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F311" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H311">
         <v>500</v>
       </c>
       <c r="I311">
         <v>9.44</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" t="s">
+        <v>16</v>
+      </c>
+      <c r="C312" s="2">
+        <v>45308.00048611111</v>
+      </c>
+      <c r="D312" t="s">
+        <v>248</v>
+      </c>
+      <c r="G312" t="s">
+        <v>311</v>
+      </c>
+      <c r="H312">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" t="s">
+        <v>9</v>
+      </c>
+      <c r="B313" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" s="2">
+        <v>45308.40555555555</v>
+      </c>
+      <c r="D313" t="s">
+        <v>249</v>
+      </c>
+      <c r="E313" t="s">
+        <v>294</v>
+      </c>
+      <c r="F313" t="s">
+        <v>304</v>
+      </c>
+      <c r="G313" t="s">
+        <v>307</v>
+      </c>
+      <c r="H313">
+        <v>600</v>
+      </c>
+      <c r="I313">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314" t="s">
+        <v>15</v>
+      </c>
+      <c r="C314" s="2">
+        <v>45308.40555555555</v>
+      </c>
+      <c r="D314" t="s">
+        <v>250</v>
+      </c>
+      <c r="E314" t="s">
+        <v>294</v>
+      </c>
+      <c r="F314" t="s">
+        <v>296</v>
+      </c>
+      <c r="G314" t="s">
+        <v>310</v>
+      </c>
+      <c r="H314">
+        <v>600</v>
+      </c>
+      <c r="I314">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" t="s">
+        <v>9</v>
+      </c>
+      <c r="B315" t="s">
+        <v>11</v>
+      </c>
+      <c r="C315" s="2">
+        <v>45308.40555555555</v>
+      </c>
+      <c r="D315" t="s">
+        <v>24</v>
+      </c>
+      <c r="E315" t="s">
+        <v>294</v>
+      </c>
+      <c r="F315" t="s">
+        <v>300</v>
+      </c>
+      <c r="G315" t="s">
+        <v>308</v>
+      </c>
+      <c r="H315">
+        <v>600</v>
+      </c>
+      <c r="I315">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" t="s">
+        <v>9</v>
+      </c>
+      <c r="B316" t="s">
+        <v>8</v>
+      </c>
+      <c r="C316" s="2">
+        <v>45308.40555555555</v>
+      </c>
+      <c r="D316" t="s">
+        <v>251</v>
+      </c>
+      <c r="E316" t="s">
+        <v>294</v>
+      </c>
+      <c r="G316" t="s">
+        <v>8</v>
+      </c>
+      <c r="H316">
+        <v>600</v>
+      </c>
+      <c r="I316">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" t="s">
+        <v>9</v>
+      </c>
+      <c r="B317" t="s">
+        <v>12</v>
+      </c>
+      <c r="C317" s="2">
+        <v>45308.40555555555</v>
+      </c>
+      <c r="D317" t="s">
+        <v>192</v>
+      </c>
+      <c r="E317" t="s">
+        <v>294</v>
+      </c>
+      <c r="F317" t="s">
+        <v>305</v>
+      </c>
+      <c r="G317" t="s">
+        <v>309</v>
+      </c>
+      <c r="H317">
+        <v>600</v>
+      </c>
+      <c r="I317">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" t="s">
+        <v>9</v>
+      </c>
+      <c r="B318" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318" s="2">
+        <v>45308.40555555555</v>
+      </c>
+      <c r="D318" t="s">
+        <v>252</v>
+      </c>
+      <c r="E318" t="s">
+        <v>294</v>
+      </c>
+      <c r="F318" t="s">
+        <v>302</v>
+      </c>
+      <c r="H318">
+        <v>600</v>
+      </c>
+      <c r="I318">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" t="s">
+        <v>9</v>
+      </c>
+      <c r="B319" t="s">
+        <v>14</v>
+      </c>
+      <c r="C319" s="2">
+        <v>45308.40555555555</v>
+      </c>
+      <c r="D319" t="s">
+        <v>253</v>
+      </c>
+      <c r="E319" t="s">
+        <v>294</v>
+      </c>
+      <c r="F319" t="s">
+        <v>303</v>
+      </c>
+      <c r="H319">
+        <v>600</v>
+      </c>
+      <c r="I319">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" t="s">
+        <v>9</v>
+      </c>
+      <c r="B320" t="s">
+        <v>16</v>
+      </c>
+      <c r="C320" s="2">
+        <v>45344.00048611111</v>
+      </c>
+      <c r="D320" t="s">
+        <v>254</v>
+      </c>
+      <c r="G320" t="s">
+        <v>311</v>
+      </c>
+      <c r="H320">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" s="2">
+        <v>45344.4375</v>
+      </c>
+      <c r="D321" t="s">
+        <v>255</v>
+      </c>
+      <c r="E321" t="s">
+        <v>294</v>
+      </c>
+      <c r="F321" t="s">
+        <v>304</v>
+      </c>
+      <c r="G321" t="s">
+        <v>307</v>
+      </c>
+      <c r="H321">
+        <v>600</v>
+      </c>
+      <c r="I321">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" t="s">
+        <v>9</v>
+      </c>
+      <c r="B322" t="s">
+        <v>15</v>
+      </c>
+      <c r="C322" s="2">
+        <v>45344.4375</v>
+      </c>
+      <c r="D322" t="s">
+        <v>256</v>
+      </c>
+      <c r="E322" t="s">
+        <v>294</v>
+      </c>
+      <c r="F322" t="s">
+        <v>296</v>
+      </c>
+      <c r="G322" t="s">
+        <v>310</v>
+      </c>
+      <c r="H322">
+        <v>600</v>
+      </c>
+      <c r="I322">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>11</v>
+      </c>
+      <c r="C323" s="2">
+        <v>45344.4375</v>
+      </c>
+      <c r="D323" t="s">
+        <v>24</v>
+      </c>
+      <c r="E323" t="s">
+        <v>294</v>
+      </c>
+      <c r="F323" t="s">
+        <v>300</v>
+      </c>
+      <c r="G323" t="s">
+        <v>308</v>
+      </c>
+      <c r="H323">
+        <v>600</v>
+      </c>
+      <c r="I323">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324" s="2">
+        <v>45344.4375</v>
+      </c>
+      <c r="D324" t="s">
+        <v>257</v>
+      </c>
+      <c r="E324" t="s">
+        <v>294</v>
+      </c>
+      <c r="G324" t="s">
+        <v>8</v>
+      </c>
+      <c r="H324">
+        <v>600</v>
+      </c>
+      <c r="I324">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" s="2">
+        <v>45344.4375</v>
+      </c>
+      <c r="D325" t="s">
+        <v>182</v>
+      </c>
+      <c r="E325" t="s">
+        <v>294</v>
+      </c>
+      <c r="F325" t="s">
+        <v>305</v>
+      </c>
+      <c r="G325" t="s">
+        <v>309</v>
+      </c>
+      <c r="H325">
+        <v>600</v>
+      </c>
+      <c r="I325">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
+        <v>9</v>
+      </c>
+      <c r="B326" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326" s="2">
+        <v>45344.4375</v>
+      </c>
+      <c r="D326" t="s">
+        <v>258</v>
+      </c>
+      <c r="E326" t="s">
+        <v>294</v>
+      </c>
+      <c r="F326" t="s">
+        <v>302</v>
+      </c>
+      <c r="H326">
+        <v>600</v>
+      </c>
+      <c r="I326">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327" t="s">
+        <v>14</v>
+      </c>
+      <c r="C327" s="2">
+        <v>45344.4375</v>
+      </c>
+      <c r="D327" t="s">
+        <v>259</v>
+      </c>
+      <c r="E327" t="s">
+        <v>294</v>
+      </c>
+      <c r="F327" t="s">
+        <v>303</v>
+      </c>
+      <c r="H327">
+        <v>600</v>
+      </c>
+      <c r="I327">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" t="s">
+        <v>16</v>
+      </c>
+      <c r="C328" s="2">
+        <v>45363.00048611111</v>
+      </c>
+      <c r="D328" t="s">
+        <v>260</v>
+      </c>
+      <c r="G328" t="s">
+        <v>311</v>
+      </c>
+      <c r="H328">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" s="2">
+        <v>45363.3875</v>
+      </c>
+      <c r="D329" t="s">
+        <v>261</v>
+      </c>
+      <c r="E329" t="s">
+        <v>294</v>
+      </c>
+      <c r="F329" t="s">
+        <v>304</v>
+      </c>
+      <c r="G329" t="s">
+        <v>307</v>
+      </c>
+      <c r="H329">
+        <v>600</v>
+      </c>
+      <c r="I329">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
+        <v>9</v>
+      </c>
+      <c r="B330" t="s">
+        <v>15</v>
+      </c>
+      <c r="C330" s="2">
+        <v>45363.3875</v>
+      </c>
+      <c r="D330" t="s">
+        <v>262</v>
+      </c>
+      <c r="E330" t="s">
+        <v>294</v>
+      </c>
+      <c r="F330" t="s">
+        <v>296</v>
+      </c>
+      <c r="G330" t="s">
+        <v>310</v>
+      </c>
+      <c r="H330">
+        <v>600</v>
+      </c>
+      <c r="I330">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" t="s">
+        <v>11</v>
+      </c>
+      <c r="C331" s="2">
+        <v>45363.3875</v>
+      </c>
+      <c r="D331" t="s">
+        <v>24</v>
+      </c>
+      <c r="E331" t="s">
+        <v>294</v>
+      </c>
+      <c r="F331" t="s">
+        <v>300</v>
+      </c>
+      <c r="G331" t="s">
+        <v>308</v>
+      </c>
+      <c r="H331">
+        <v>600</v>
+      </c>
+      <c r="I331">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332" s="2">
+        <v>45363.3875</v>
+      </c>
+      <c r="D332" t="s">
+        <v>263</v>
+      </c>
+      <c r="E332" t="s">
+        <v>294</v>
+      </c>
+      <c r="G332" t="s">
+        <v>8</v>
+      </c>
+      <c r="H332">
+        <v>600</v>
+      </c>
+      <c r="I332">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>12</v>
+      </c>
+      <c r="C333" s="2">
+        <v>45363.3875</v>
+      </c>
+      <c r="D333" t="s">
+        <v>264</v>
+      </c>
+      <c r="E333" t="s">
+        <v>294</v>
+      </c>
+      <c r="F333" t="s">
+        <v>305</v>
+      </c>
+      <c r="G333" t="s">
+        <v>309</v>
+      </c>
+      <c r="H333">
+        <v>600</v>
+      </c>
+      <c r="I333">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" t="s">
+        <v>13</v>
+      </c>
+      <c r="C334" s="2">
+        <v>45363.3875</v>
+      </c>
+      <c r="D334" t="s">
+        <v>66</v>
+      </c>
+      <c r="E334" t="s">
+        <v>294</v>
+      </c>
+      <c r="F334" t="s">
+        <v>302</v>
+      </c>
+      <c r="H334">
+        <v>600</v>
+      </c>
+      <c r="I334">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>14</v>
+      </c>
+      <c r="C335" s="2">
+        <v>45363.3875</v>
+      </c>
+      <c r="D335" t="s">
+        <v>265</v>
+      </c>
+      <c r="E335" t="s">
+        <v>294</v>
+      </c>
+      <c r="F335" t="s">
+        <v>303</v>
+      </c>
+      <c r="H335">
+        <v>600</v>
+      </c>
+      <c r="I335">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>16</v>
+      </c>
+      <c r="C336" s="2">
+        <v>45398.00048611111</v>
+      </c>
+      <c r="D336" t="s">
+        <v>266</v>
+      </c>
+      <c r="G336" t="s">
+        <v>311</v>
+      </c>
+      <c r="H336">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" s="2">
+        <v>45398.42291666667</v>
+      </c>
+      <c r="D337" t="s">
+        <v>267</v>
+      </c>
+      <c r="E337" t="s">
+        <v>294</v>
+      </c>
+      <c r="F337" t="s">
+        <v>304</v>
+      </c>
+      <c r="G337" t="s">
+        <v>307</v>
+      </c>
+      <c r="H337">
+        <v>600</v>
+      </c>
+      <c r="I337">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>15</v>
+      </c>
+      <c r="C338" s="2">
+        <v>45398.42291666667</v>
+      </c>
+      <c r="D338" t="s">
+        <v>127</v>
+      </c>
+      <c r="E338" t="s">
+        <v>294</v>
+      </c>
+      <c r="F338" t="s">
+        <v>296</v>
+      </c>
+      <c r="G338" t="s">
+        <v>310</v>
+      </c>
+      <c r="H338">
+        <v>600</v>
+      </c>
+      <c r="I338">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>11</v>
+      </c>
+      <c r="C339" s="2">
+        <v>45398.42291666667</v>
+      </c>
+      <c r="D339" t="s">
+        <v>34</v>
+      </c>
+      <c r="E339" t="s">
+        <v>294</v>
+      </c>
+      <c r="F339" t="s">
+        <v>300</v>
+      </c>
+      <c r="G339" t="s">
+        <v>308</v>
+      </c>
+      <c r="H339">
+        <v>600</v>
+      </c>
+      <c r="I339">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" s="2">
+        <v>45398.42291666667</v>
+      </c>
+      <c r="D340" t="s">
+        <v>268</v>
+      </c>
+      <c r="E340" t="s">
+        <v>294</v>
+      </c>
+      <c r="G340" t="s">
+        <v>8</v>
+      </c>
+      <c r="H340">
+        <v>600</v>
+      </c>
+      <c r="I340">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" t="s">
+        <v>12</v>
+      </c>
+      <c r="C341" s="2">
+        <v>45398.42291666667</v>
+      </c>
+      <c r="D341" t="s">
+        <v>134</v>
+      </c>
+      <c r="E341" t="s">
+        <v>294</v>
+      </c>
+      <c r="F341" t="s">
+        <v>305</v>
+      </c>
+      <c r="G341" t="s">
+        <v>309</v>
+      </c>
+      <c r="H341">
+        <v>600</v>
+      </c>
+      <c r="I341">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>13</v>
+      </c>
+      <c r="C342" s="2">
+        <v>45398.42291666667</v>
+      </c>
+      <c r="D342" t="s">
+        <v>269</v>
+      </c>
+      <c r="E342" t="s">
+        <v>294</v>
+      </c>
+      <c r="F342" t="s">
+        <v>302</v>
+      </c>
+      <c r="H342">
+        <v>600</v>
+      </c>
+      <c r="I342">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>14</v>
+      </c>
+      <c r="C343" s="2">
+        <v>45398.42291666667</v>
+      </c>
+      <c r="D343" t="s">
+        <v>270</v>
+      </c>
+      <c r="E343" t="s">
+        <v>294</v>
+      </c>
+      <c r="F343" t="s">
+        <v>303</v>
+      </c>
+      <c r="H343">
+        <v>600</v>
+      </c>
+      <c r="I343">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" t="s">
+        <v>16</v>
+      </c>
+      <c r="C344" s="2">
+        <v>45511.00048611111</v>
+      </c>
+      <c r="D344" t="s">
+        <v>271</v>
+      </c>
+      <c r="G344" t="s">
+        <v>311</v>
+      </c>
+      <c r="H344">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>10</v>
+      </c>
+      <c r="C345" s="2">
+        <v>45511.39444444444</v>
+      </c>
+      <c r="D345" t="s">
+        <v>180</v>
+      </c>
+      <c r="E345" t="s">
+        <v>294</v>
+      </c>
+      <c r="F345" t="s">
+        <v>306</v>
+      </c>
+      <c r="G345" t="s">
+        <v>307</v>
+      </c>
+      <c r="H345">
+        <v>600</v>
+      </c>
+      <c r="I345">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>15</v>
+      </c>
+      <c r="C346" s="2">
+        <v>45511.39444444444</v>
+      </c>
+      <c r="D346" t="s">
+        <v>76</v>
+      </c>
+      <c r="E346" t="s">
+        <v>294</v>
+      </c>
+      <c r="F346" t="s">
+        <v>296</v>
+      </c>
+      <c r="G346" t="s">
+        <v>310</v>
+      </c>
+      <c r="H346">
+        <v>600</v>
+      </c>
+      <c r="I346">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347" s="2">
+        <v>45511.39444444444</v>
+      </c>
+      <c r="D347" t="s">
+        <v>24</v>
+      </c>
+      <c r="E347" t="s">
+        <v>294</v>
+      </c>
+      <c r="F347" t="s">
+        <v>300</v>
+      </c>
+      <c r="G347" t="s">
+        <v>308</v>
+      </c>
+      <c r="H347">
+        <v>600</v>
+      </c>
+      <c r="I347">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>8</v>
+      </c>
+      <c r="C348" s="2">
+        <v>45511.39444444444</v>
+      </c>
+      <c r="D348" t="s">
+        <v>272</v>
+      </c>
+      <c r="E348" t="s">
+        <v>294</v>
+      </c>
+      <c r="G348" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348">
+        <v>600</v>
+      </c>
+      <c r="I348">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349" s="2">
+        <v>45511.39444444444</v>
+      </c>
+      <c r="D349" t="s">
+        <v>273</v>
+      </c>
+      <c r="E349" t="s">
+        <v>294</v>
+      </c>
+      <c r="F349" t="s">
+        <v>305</v>
+      </c>
+      <c r="G349" t="s">
+        <v>309</v>
+      </c>
+      <c r="H349">
+        <v>600</v>
+      </c>
+      <c r="I349">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>13</v>
+      </c>
+      <c r="C350" s="2">
+        <v>45511.39444444444</v>
+      </c>
+      <c r="D350" t="s">
+        <v>258</v>
+      </c>
+      <c r="E350" t="s">
+        <v>294</v>
+      </c>
+      <c r="F350" t="s">
+        <v>302</v>
+      </c>
+      <c r="H350">
+        <v>600</v>
+      </c>
+      <c r="I350">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>14</v>
+      </c>
+      <c r="C351" s="2">
+        <v>45511.39444444444</v>
+      </c>
+      <c r="D351" t="s">
+        <v>274</v>
+      </c>
+      <c r="E351" t="s">
+        <v>294</v>
+      </c>
+      <c r="F351" t="s">
+        <v>303</v>
+      </c>
+      <c r="H351">
+        <v>600</v>
+      </c>
+      <c r="I351">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>16</v>
+      </c>
+      <c r="C352" s="2">
+        <v>45558.00048611111</v>
+      </c>
+      <c r="D352" t="s">
+        <v>275</v>
+      </c>
+      <c r="G352" t="s">
+        <v>311</v>
+      </c>
+      <c r="H352">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353" s="2">
+        <v>45558.41041666667</v>
+      </c>
+      <c r="D353" t="s">
+        <v>276</v>
+      </c>
+      <c r="E353" t="s">
+        <v>294</v>
+      </c>
+      <c r="F353" t="s">
+        <v>304</v>
+      </c>
+      <c r="G353" t="s">
+        <v>307</v>
+      </c>
+      <c r="H353">
+        <v>600</v>
+      </c>
+      <c r="I353">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>15</v>
+      </c>
+      <c r="C354" s="2">
+        <v>45558.41041666667</v>
+      </c>
+      <c r="D354" t="s">
+        <v>277</v>
+      </c>
+      <c r="E354" t="s">
+        <v>294</v>
+      </c>
+      <c r="F354" t="s">
+        <v>296</v>
+      </c>
+      <c r="G354" t="s">
+        <v>310</v>
+      </c>
+      <c r="H354">
+        <v>600</v>
+      </c>
+      <c r="I354">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>11</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45558.41041666667</v>
+      </c>
+      <c r="D355" t="s">
+        <v>278</v>
+      </c>
+      <c r="E355" t="s">
+        <v>294</v>
+      </c>
+      <c r="F355" t="s">
+        <v>300</v>
+      </c>
+      <c r="G355" t="s">
+        <v>308</v>
+      </c>
+      <c r="H355">
+        <v>600</v>
+      </c>
+      <c r="I355">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356" s="2">
+        <v>45558.41041666667</v>
+      </c>
+      <c r="D356" t="s">
+        <v>279</v>
+      </c>
+      <c r="E356" t="s">
+        <v>294</v>
+      </c>
+      <c r="G356" t="s">
+        <v>8</v>
+      </c>
+      <c r="H356">
+        <v>600</v>
+      </c>
+      <c r="I356">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357" s="2">
+        <v>45558.41041666667</v>
+      </c>
+      <c r="D357" t="s">
+        <v>280</v>
+      </c>
+      <c r="E357" t="s">
+        <v>294</v>
+      </c>
+      <c r="F357" t="s">
+        <v>305</v>
+      </c>
+      <c r="G357" t="s">
+        <v>309</v>
+      </c>
+      <c r="H357">
+        <v>600</v>
+      </c>
+      <c r="I357">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>13</v>
+      </c>
+      <c r="C358" s="2">
+        <v>45558.41041666667</v>
+      </c>
+      <c r="D358" t="s">
+        <v>281</v>
+      </c>
+      <c r="E358" t="s">
+        <v>294</v>
+      </c>
+      <c r="F358" t="s">
+        <v>302</v>
+      </c>
+      <c r="H358">
+        <v>600</v>
+      </c>
+      <c r="I358">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>14</v>
+      </c>
+      <c r="C359" s="2">
+        <v>45558.41041666667</v>
+      </c>
+      <c r="D359" t="s">
+        <v>282</v>
+      </c>
+      <c r="E359" t="s">
+        <v>294</v>
+      </c>
+      <c r="F359" t="s">
+        <v>303</v>
+      </c>
+      <c r="H359">
+        <v>600</v>
+      </c>
+      <c r="I359">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>16</v>
+      </c>
+      <c r="C360" s="2">
+        <v>45587.00048611111</v>
+      </c>
+      <c r="D360" t="s">
+        <v>283</v>
+      </c>
+      <c r="G360" t="s">
+        <v>311</v>
+      </c>
+      <c r="H360">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>10</v>
+      </c>
+      <c r="C361" s="2">
+        <v>45587.41041666667</v>
+      </c>
+      <c r="D361" t="s">
+        <v>284</v>
+      </c>
+      <c r="E361" t="s">
+        <v>294</v>
+      </c>
+      <c r="F361" t="s">
+        <v>304</v>
+      </c>
+      <c r="G361" t="s">
+        <v>307</v>
+      </c>
+      <c r="H361">
+        <v>600</v>
+      </c>
+      <c r="I361">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" t="s">
+        <v>15</v>
+      </c>
+      <c r="C362" s="2">
+        <v>45587.41041666667</v>
+      </c>
+      <c r="D362" t="s">
+        <v>285</v>
+      </c>
+      <c r="E362" t="s">
+        <v>294</v>
+      </c>
+      <c r="F362" t="s">
+        <v>296</v>
+      </c>
+      <c r="G362" t="s">
+        <v>310</v>
+      </c>
+      <c r="H362">
+        <v>600</v>
+      </c>
+      <c r="I362">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>11</v>
+      </c>
+      <c r="C363" s="2">
+        <v>45587.41041666667</v>
+      </c>
+      <c r="D363" t="s">
+        <v>24</v>
+      </c>
+      <c r="E363" t="s">
+        <v>294</v>
+      </c>
+      <c r="F363" t="s">
+        <v>300</v>
+      </c>
+      <c r="G363" t="s">
+        <v>308</v>
+      </c>
+      <c r="H363">
+        <v>600</v>
+      </c>
+      <c r="I363">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>8</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45587.41041666667</v>
+      </c>
+      <c r="D364" t="s">
+        <v>286</v>
+      </c>
+      <c r="E364" t="s">
+        <v>294</v>
+      </c>
+      <c r="G364" t="s">
+        <v>8</v>
+      </c>
+      <c r="H364">
+        <v>600</v>
+      </c>
+      <c r="I364">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>12</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45587.41041666667</v>
+      </c>
+      <c r="D365" t="s">
+        <v>192</v>
+      </c>
+      <c r="E365" t="s">
+        <v>294</v>
+      </c>
+      <c r="F365" t="s">
+        <v>305</v>
+      </c>
+      <c r="G365" t="s">
+        <v>309</v>
+      </c>
+      <c r="H365">
+        <v>600</v>
+      </c>
+      <c r="I365">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>13</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45587.41041666667</v>
+      </c>
+      <c r="D366" t="s">
+        <v>287</v>
+      </c>
+      <c r="E366" t="s">
+        <v>294</v>
+      </c>
+      <c r="F366" t="s">
+        <v>302</v>
+      </c>
+      <c r="H366">
+        <v>600</v>
+      </c>
+      <c r="I366">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>14</v>
+      </c>
+      <c r="C367" s="2">
+        <v>45587.41041666667</v>
+      </c>
+      <c r="D367" t="s">
+        <v>288</v>
+      </c>
+      <c r="E367" t="s">
+        <v>294</v>
+      </c>
+      <c r="F367" t="s">
+        <v>303</v>
+      </c>
+      <c r="H367">
+        <v>600</v>
+      </c>
+      <c r="I367">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s">
+        <v>16</v>
+      </c>
+      <c r="C368" s="2">
+        <v>45636.00048611111</v>
+      </c>
+      <c r="D368" t="s">
+        <v>289</v>
+      </c>
+      <c r="G368" t="s">
+        <v>311</v>
+      </c>
+      <c r="H368">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" s="2">
+        <v>45636.39861111111</v>
+      </c>
+      <c r="D369" t="s">
+        <v>17</v>
+      </c>
+      <c r="E369" t="s">
+        <v>294</v>
+      </c>
+      <c r="F369" t="s">
+        <v>304</v>
+      </c>
+      <c r="G369" t="s">
+        <v>307</v>
+      </c>
+      <c r="H369">
+        <v>600</v>
+      </c>
+      <c r="I369">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" t="s">
+        <v>15</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45636.39861111111</v>
+      </c>
+      <c r="D370" t="s">
+        <v>290</v>
+      </c>
+      <c r="E370" t="s">
+        <v>294</v>
+      </c>
+      <c r="F370" t="s">
+        <v>296</v>
+      </c>
+      <c r="G370" t="s">
+        <v>310</v>
+      </c>
+      <c r="H370">
+        <v>600</v>
+      </c>
+      <c r="I370">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" s="2">
+        <v>45636.39861111111</v>
+      </c>
+      <c r="D371" t="s">
+        <v>34</v>
+      </c>
+      <c r="E371" t="s">
+        <v>294</v>
+      </c>
+      <c r="F371" t="s">
+        <v>300</v>
+      </c>
+      <c r="G371" t="s">
+        <v>308</v>
+      </c>
+      <c r="H371">
+        <v>600</v>
+      </c>
+      <c r="I371">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" t="s">
+        <v>8</v>
+      </c>
+      <c r="C372" s="2">
+        <v>45636.39861111111</v>
+      </c>
+      <c r="D372" t="s">
+        <v>291</v>
+      </c>
+      <c r="E372" t="s">
+        <v>294</v>
+      </c>
+      <c r="G372" t="s">
+        <v>8</v>
+      </c>
+      <c r="H372">
+        <v>600</v>
+      </c>
+      <c r="I372">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373" s="2">
+        <v>45636.39861111111</v>
+      </c>
+      <c r="D373" t="s">
+        <v>292</v>
+      </c>
+      <c r="E373" t="s">
+        <v>294</v>
+      </c>
+      <c r="F373" t="s">
+        <v>305</v>
+      </c>
+      <c r="G373" t="s">
+        <v>309</v>
+      </c>
+      <c r="H373">
+        <v>600</v>
+      </c>
+      <c r="I373">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>13</v>
+      </c>
+      <c r="C374" s="2">
+        <v>45636.39861111111</v>
+      </c>
+      <c r="D374" t="s">
+        <v>235</v>
+      </c>
+      <c r="E374" t="s">
+        <v>294</v>
+      </c>
+      <c r="F374" t="s">
+        <v>302</v>
+      </c>
+      <c r="H374">
+        <v>600</v>
+      </c>
+      <c r="I374">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" t="s">
+        <v>14</v>
+      </c>
+      <c r="C375" s="2">
+        <v>45636.39861111111</v>
+      </c>
+      <c r="D375" t="s">
+        <v>293</v>
+      </c>
+      <c r="E375" t="s">
+        <v>294</v>
+      </c>
+      <c r="F375" t="s">
+        <v>303</v>
+      </c>
+      <c r="H375">
+        <v>600</v>
+      </c>
+      <c r="I375">
+        <v>8.52</v>
       </c>
     </row>
   </sheetData>

--- a/data/Lakes/LakeWilliam_e66a7ded34.xlsx
+++ b/data/Lakes/LakeWilliam_e66a7ded34.xlsx
@@ -64,7 +64,7 @@
     <t>Chlorophyll A</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>0.0500</t>
